--- a/rider/weekly/2016_31.xlsx
+++ b/rider/weekly/2016_31.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>166</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>189</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>216</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>169</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>183</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>92.16</c:v>
+                  <c:v>92.47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.96</c:v>
+                  <c:v>93.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.5</c:v>
+                  <c:v>99.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97.5</c:v>
+                  <c:v>97.69</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.36</c:v>
+                  <c:v>94.67</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>40.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.13</c:v>
+                  <c:v>33.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D2">
-        <v>92.16</v>
+        <v>92.47</v>
       </c>
       <c r="E2">
         <v>73.65</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D3">
-        <v>93.96</v>
+        <v>93.86</v>
       </c>
       <c r="E3">
         <v>73.81</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="D4">
-        <v>100.5</v>
+        <v>99.65</v>
       </c>
       <c r="E4">
         <v>73.97</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D5">
-        <v>97.5</v>
+        <v>97.69</v>
       </c>
       <c r="E5">
         <v>74.13</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="D6">
-        <v>94.36</v>
+        <v>94.67</v>
       </c>
       <c r="E6">
         <v>74.29</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>33.13</v>
+        <v>33.19</v>
       </c>
       <c r="E8">
         <v>74.62</v>

--- a/rider/weekly/2016_31.xlsx
+++ b/rider/weekly/2016_31.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>179</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>197</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>66</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>92.47</c:v>
+                  <c:v>92.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.86</c:v>
+                  <c:v>93.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99.65</c:v>
+                  <c:v>100.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97.69</c:v>
+                  <c:v>97.58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.67</c:v>
+                  <c:v>94.27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.3</c:v>
+                  <c:v>40.37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.19</c:v>
+                  <c:v>33.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D2">
-        <v>92.47</v>
+        <v>92.6</v>
       </c>
       <c r="E2">
         <v>73.65</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D3">
-        <v>93.86</v>
+        <v>93.8</v>
       </c>
       <c r="E3">
         <v>73.81</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="D4">
-        <v>99.65</v>
+        <v>100.02</v>
       </c>
       <c r="E4">
         <v>73.97</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D5">
-        <v>97.69</v>
+        <v>97.58</v>
       </c>
       <c r="E5">
         <v>74.13</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="D6">
-        <v>94.67</v>
+        <v>94.27</v>
       </c>
       <c r="E6">
         <v>74.29</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D7">
-        <v>40.3</v>
+        <v>40.37</v>
       </c>
       <c r="E7">
         <v>74.45</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8">
-        <v>33.19</v>
+        <v>33.17</v>
       </c>
       <c r="E8">
         <v>74.62</v>

--- a/rider/weekly/2016_31.xlsx
+++ b/rider/weekly/2016_31.xlsx
@@ -195,19 +195,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>185</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>181</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>193</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>173</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>179</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>69</c:v>
@@ -271,19 +271,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>92.6</c:v>
+                  <c:v>92.49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.8</c:v>
+                  <c:v>93.59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.02</c:v>
+                  <c:v>100.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97.58</c:v>
+                  <c:v>97.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.27</c:v>
+                  <c:v>94.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>40.37</c:v>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D2">
-        <v>92.6</v>
+        <v>92.49</v>
       </c>
       <c r="E2">
         <v>73.65</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D3">
-        <v>93.8</v>
+        <v>93.59</v>
       </c>
       <c r="E3">
         <v>73.81</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D4">
-        <v>100.02</v>
+        <v>100.35</v>
       </c>
       <c r="E4">
         <v>73.97</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D5">
-        <v>97.58</v>
+        <v>97.48</v>
       </c>
       <c r="E5">
         <v>74.13</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D6">
-        <v>94.27</v>
+        <v>94.38</v>
       </c>
       <c r="E6">
         <v>74.29</v>
